--- a/DOM_Banner/output/dept0713/Sasha Taleban_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Sasha Taleban_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383420486</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Mo1251 A TOLL-LIKE RECEPTOR 9 (TLR9) SINGLE NUCLEOTIDE POLYMORPHISM MAY INCREASE COMPLICATIONS TO HELICOBACTER PYLORI INFECTION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(23)02857-3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Banner Health, Tucson, AZ;; Banner Health, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387733195</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>S3170 JAK(1i) to the Rescue! Upadacitinib as Rescue Therapy in Acute Severe Ulcerative Colitis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000962320.66241.35</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000962320.66241.35</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>University of Pennsylvania, Philadelphia, PA;; Gastroenterology Associates, Inc., Providence, RI;; University of Wisconsin, Milwaukee, WI;; University of Arizona College of Medicine, Tucson, AZ;; Vanderbilt University Medical Center, Nashville, TN;; University of Wisconsin, Milaukee, WA;; Brown University, Providence, RI;; Brown University, Providence, RI;; University of Pennsylvania, Philadelphia, PA;; University of Pennsylvania, Philadelphia, PA;; University of Pennsylvania, Philadelphia, PA;; Lafayette, NY;; Crohn's and Colitis Foundation, New York, NY;; University of Maryland, Baltimore, MD;; University of North Carolina Chapel Hill, Chapel Hill, NC.; University of Pennsylvania, Philadelphia, PA;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387750932</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>S887 Health-Related Social Needs &amp;amp; Disease Activity Are Independently Associated With Moderate-to-Severe IBD-Related Disability</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000953188.38273.5d</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000953188.38273.5d</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ;; University of Arizona College of Medicine, Tucson, AZ;; University of Arizona, Tucson, AZ;; Mel and Enid Zuckerman College of Public Health, University of Arizona, Tucson, AZ.; University of Arizona College of Medicine, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387751238</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>S920 Micronutrient Deficiencies Are Not Associated With Worsened Rates of Adverse Clinical Outcomes in Older Patients With Inflammatory Bowel Disease</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000953320.51618.7a</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000953320.51618.7a</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona-Tucson College of Medicine, Tucson, AZ;; Presbyterian Health care, Albuquerque, NM.; Presbyterian Health care, Albuquerque, NM.; University of Arizona-Tucson College of Medicine, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387751449</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>S1081 Incidental Diagnosis of Coccidioidomycosis in Inflammatory Bowel Disease Is Less Likely Associated With Adverse Clinic Outcomes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000953964.31097.7e</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000953964.31097.7e</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
